--- a/Intel IT STUFF/The actual time sheet.xlsx
+++ b/Intel IT STUFF/The actual time sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="IT Timesheet" sheetId="7" r:id="rId1"/>
@@ -434,18 +434,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,42 +510,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -527,6 +520,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -836,7 +836,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -870,18 +870,18 @@
       <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="48">
         <v>10</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -891,10 +891,10 @@
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="27" t="s">
         <v>35</v>
       </c>
@@ -911,16 +911,16 @@
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="68" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="25"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -931,31 +931,31 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="59">
         <v>587950</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="60">
         <f>B11</f>
-        <v>42966</v>
-      </c>
-      <c r="I5" s="50"/>
+        <v>43010</v>
+      </c>
+      <c r="I5" s="60"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="50">
+      <c r="K5" s="60">
         <f>I17</f>
-        <v>42979</v>
-      </c>
-      <c r="L5" s="50"/>
+        <v>43021</v>
+      </c>
+      <c r="L5" s="60"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
@@ -972,8 +972,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
       <c r="M6" s="4"/>
       <c r="N6" s="3"/>
     </row>
@@ -988,8 +988,8 @@
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
@@ -997,26 +997,26 @@
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="43"/>
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="69">
         <f>I16</f>
-        <v>42978</v>
-      </c>
-      <c r="L8" s="60"/>
+        <v>43020</v>
+      </c>
+      <c r="L8" s="69"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="33">
-        <v>42966</v>
+        <v>43010</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>39</v>
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="33">
-        <v>42973</v>
+        <v>43015</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>39</v>
@@ -1109,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="33">
-        <v>42967</v>
+        <v>43011</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="33">
-        <v>42974</v>
+        <v>43016</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>39</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="33">
-        <v>42968</v>
+        <v>43012</v>
       </c>
       <c r="C13" s="35">
         <v>0.33333333333333331</v>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="33">
-        <v>42975</v>
+        <v>43017</v>
       </c>
       <c r="J13" s="35">
         <v>0.33333333333333331</v>
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="33">
-        <v>42969</v>
+        <v>43013</v>
       </c>
       <c r="C14" s="35">
         <v>0.33333333333333331</v>
@@ -1201,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="33">
-        <v>42976</v>
+        <v>43018</v>
       </c>
       <c r="J14" s="35">
         <v>0.33333333333333331</v>
@@ -1224,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="33">
-        <v>42970</v>
+        <v>43014</v>
       </c>
       <c r="C15" s="35">
         <v>0.33333333333333331</v>
@@ -1240,7 +1240,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="33">
-        <v>42977</v>
+        <v>43019</v>
       </c>
       <c r="J15" s="35">
         <v>0.33333333333333331</v>
@@ -1258,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="33">
-        <v>42971</v>
+        <v>43015</v>
       </c>
       <c r="C16" s="35">
         <v>0.33333333333333331</v>
@@ -1274,18 +1274,12 @@
         <v>13</v>
       </c>
       <c r="I16" s="33">
-        <v>42978</v>
-      </c>
-      <c r="J16" s="35">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K16" s="35">
-        <v>0.41666666666666669</v>
-      </c>
+        <v>43020</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="29">
-        <v>2</v>
-      </c>
+      <c r="M16" s="29"/>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -1300,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="33">
-        <v>42972</v>
+        <v>43016</v>
       </c>
       <c r="C17" s="35">
         <v>0.33333333333333331</v>
@@ -1310,24 +1304,18 @@
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="33">
-        <v>42979</v>
-      </c>
-      <c r="J17" s="35">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K17" s="35">
-        <v>0.45833333333333331</v>
-      </c>
+        <v>43021</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="36"/>
-      <c r="M17" s="29">
-        <v>3</v>
-      </c>
+      <c r="M17" s="29"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -1342,12 +1330,12 @@
       <c r="B18" s="1"/>
       <c r="F18" s="29">
         <f>SUM(F11:F17)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1"/>
       <c r="M18" s="29">
         <f>SUM(M11:M17)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -1372,26 +1360,26 @@
       <c r="V19" s="38"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="41">
         <f>F18+M18</f>
-        <v>32</v>
-      </c>
-      <c r="C20" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="45">
         <v>0</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="67" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="45">
         <v>0</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="67" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="45">
@@ -1405,9 +1393,9 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="43">
+      <c r="M20" s="55">
         <f>B20+D20+F20+H20+J20</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="38"/>
@@ -1420,13 +1408,13 @@
       <c r="V20" s="38"/>
     </row>
     <row r="21" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="46"/>
-      <c r="E21" s="58"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="46"/>
-      <c r="G21" s="58"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="46"/>
       <c r="I21" s="21" t="s">
         <v>19</v>
@@ -1436,7 +1424,7 @@
       <c r="L21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="44"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -1467,30 +1455,21 @@
       <c r="I25" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="D20:D21"/>
@@ -1507,6 +1486,15 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1554,15 +1542,15 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="27"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -1571,54 +1559,54 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1789,15 +1777,15 @@
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="42"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="27"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -1806,54 +1794,54 @@
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="76"/>
-      <c r="C34" s="75"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
     </row>
     <row r="39" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -2011,12 +1999,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="B34:C34"/>
@@ -2025,20 +2021,12 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="K37:L37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="1" header="0.5" footer="0.5"/>
